--- a/experiments_results/[3] FullFactDesign_screening_results.xlsx
+++ b/experiments_results/[3] FullFactDesign_screening_results.xlsx
@@ -14,18 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>max_depth</t>
+    <t>min_samples_leaf</t>
   </si>
   <si>
     <t>min_weight_fraction_leaf</t>
   </si>
   <si>
     <t>max_features</t>
-  </si>
-  <si>
-    <t>min_samples_leaf</t>
   </si>
   <si>
     <t>MSE</t>
@@ -386,13 +383,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -405,211 +402,178 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>-1</v>
-      </c>
-      <c r="F2">
-        <v>232.0336666666667</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>171.114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>233.677</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>171.0092</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>-1</v>
-      </c>
-      <c r="F4">
-        <v>155.9206666666666</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>218.5938</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>163.5446666666667</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>217.173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>-1</v>
-      </c>
-      <c r="F6">
-        <v>242.472</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>216.5404</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>241.5726666666667</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>218.849</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>-1</v>
-      </c>
-      <c r="F8">
-        <v>190.3516666666667</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>243.8266</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>189.03</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>244.7872</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>-1</v>
-      </c>
-      <c r="F10">
-        <v>98.34666666666668</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>243.7654</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>165.3436666666666</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>134.6888</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -617,59 +581,50 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12">
-        <v>-1</v>
-      </c>
-      <c r="F12">
-        <v>44.51733333333334</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>134.1982</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>68.91966666666666</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>177.81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>-1</v>
-      </c>
-      <c r="F14">
-        <v>242.4203333333333</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>197.5446</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -680,21 +635,18 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>241.152</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>199.961</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -703,30 +655,211 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>-1</v>
-      </c>
-      <c r="F16">
-        <v>186.1076666666667</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>196.5722</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>184.8013333333333</v>
+        <v>244.4898</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>245.1282</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>244.6384</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>123.0536</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>122.0034</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>168.902</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>183.2662</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>181.3738</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>180.739</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>244.252</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>244.0192</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>246.7078</v>
       </c>
     </row>
   </sheetData>
